--- a/sector_breakdown/Transport/Road files.xlsx
+++ b/sector_breakdown/Transport/Road files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk.sharepoint.com/sites/EEMsection/Delte dokumenter/General/PtXMarkets/Carmen's work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/sector_breakdown/Transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{099EE414-E1E4-46B2-9983-CE1E03D5B2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9884D0C3-89CD-4BD0-A239-AEE7BA99B6D7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AECA1210-71DA-4195-AC79-DBA8B806F380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="10" xr2:uid="{AECA1210-71DA-4195-AC79-DBA8B806F380}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy consumption" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
   <externalReferences>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="8" hidden="1">'S-shaped curve'!$Q$7:$Q$11</definedName>
@@ -2483,7 +2481,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4506,7 +4504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6168,7 +6166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8960,10 +8958,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0,002838732</c:v>
+                  <c:v>0.002838732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0,003106286</c:v>
+                  <c:v>0.003106286</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -34041,2650 +34039,10 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="Structure"/>
-      <sheetName val="Sheet 1"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Sheet 3"/>
-      <sheetName val="Sheet 4"/>
-      <sheetName val="Sheet 5"/>
-      <sheetName val="Sheet 6"/>
-      <sheetName val="Sheet 7"/>
-      <sheetName val="Total"/>
-      <sheetName val="Road"/>
-      <sheetName val="Rail"/>
-      <sheetName val="Aviation"/>
-      <sheetName val="Navigation"/>
-      <sheetName val="FORECAST"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="12">
-          <cell r="P12">
-            <v>3021857.7439999999</v>
-          </cell>
-          <cell r="Q12">
-            <v>3025652.639</v>
-          </cell>
-          <cell r="R12">
-            <v>3094242.6460000002</v>
-          </cell>
-          <cell r="S12">
-            <v>3144934.912</v>
-          </cell>
-          <cell r="T12">
-            <v>3103415.307</v>
-          </cell>
-          <cell r="U12">
-            <v>3037776.4649999999</v>
-          </cell>
-          <cell r="V12">
-            <v>3030956.5290000001</v>
-          </cell>
-          <cell r="W12">
-            <v>3017499.9180000001</v>
-          </cell>
-          <cell r="X12">
-            <v>2905196.0090000001</v>
-          </cell>
-          <cell r="Y12">
-            <v>2883948.7110000001</v>
-          </cell>
-          <cell r="Z12">
-            <v>2932818.4240000001</v>
-          </cell>
-          <cell r="AA12">
-            <v>2972559.6379999998</v>
-          </cell>
-          <cell r="AB12">
-            <v>3037606.2250000001</v>
-          </cell>
-          <cell r="AC12">
-            <v>3096227.872</v>
-          </cell>
-          <cell r="AD12">
-            <v>3110551.9440000001</v>
-          </cell>
-          <cell r="AE12">
-            <v>3140604.2089999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>2512.25</v>
-          </cell>
-          <cell r="C13">
-            <v>2529</v>
-          </cell>
-          <cell r="D13">
-            <v>2543.5</v>
-          </cell>
-          <cell r="E13">
-            <v>2585.5</v>
-          </cell>
-          <cell r="F13">
-            <v>2716.25</v>
-          </cell>
-          <cell r="G13">
-            <v>2876</v>
-          </cell>
-          <cell r="H13">
-            <v>3124.5</v>
-          </cell>
-          <cell r="I13">
-            <v>3357</v>
-          </cell>
-          <cell r="J13">
-            <v>3438.25</v>
-          </cell>
-          <cell r="K13">
-            <v>3476</v>
-          </cell>
-          <cell r="L13">
-            <v>4332.2489999999998</v>
-          </cell>
-          <cell r="M13">
-            <v>5917.2489999999998</v>
-          </cell>
-          <cell r="N13">
-            <v>5579.5</v>
-          </cell>
-          <cell r="O13">
-            <v>5625.2539999999999</v>
-          </cell>
-          <cell r="P13">
-            <v>5810.8540000000003</v>
-          </cell>
-          <cell r="Q13">
-            <v>6565.9319999999998</v>
-          </cell>
-          <cell r="R13">
-            <v>7914.116</v>
-          </cell>
-          <cell r="S13">
-            <v>8754.8520000000008</v>
-          </cell>
-          <cell r="T13">
-            <v>9499.277</v>
-          </cell>
-          <cell r="U13">
-            <v>11016.989</v>
-          </cell>
-          <cell r="V13">
-            <v>12602.612999999999</v>
-          </cell>
-          <cell r="W13">
-            <v>13935.632</v>
-          </cell>
-          <cell r="X13">
-            <v>14827.184999999999</v>
-          </cell>
-          <cell r="Y13">
-            <v>15847.361000000001</v>
-          </cell>
-          <cell r="Z13">
-            <v>16926.032999999999</v>
-          </cell>
-          <cell r="AA13">
-            <v>18018.852999999999</v>
-          </cell>
-          <cell r="AB13">
-            <v>18391.616999999998</v>
-          </cell>
-          <cell r="AC13">
-            <v>17782.188999999998</v>
-          </cell>
-          <cell r="AD13">
-            <v>18636.948</v>
-          </cell>
-          <cell r="AE13">
-            <v>21446.128000000001</v>
-          </cell>
-          <cell r="AF13">
-            <v>20706.423999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2341905.9350000001</v>
-          </cell>
-          <cell r="C14">
-            <v>2377869.8020000001</v>
-          </cell>
-          <cell r="D14">
-            <v>2446357.4210000001</v>
-          </cell>
-          <cell r="E14">
-            <v>2473118.358</v>
-          </cell>
-          <cell r="F14">
-            <v>2495009.9730000002</v>
-          </cell>
-          <cell r="G14">
-            <v>2529677.807</v>
-          </cell>
-          <cell r="H14">
-            <v>2606600.1129999999</v>
-          </cell>
-          <cell r="I14">
-            <v>2647492.09</v>
-          </cell>
-          <cell r="J14">
-            <v>2754212.602</v>
-          </cell>
-          <cell r="K14">
-            <v>2816586.452</v>
-          </cell>
-          <cell r="L14">
-            <v>2815103.0920000002</v>
-          </cell>
-          <cell r="M14">
-            <v>2864029.6570000001</v>
-          </cell>
-          <cell r="N14">
-            <v>2899912.145</v>
-          </cell>
-          <cell r="O14">
-            <v>2928222.7519999999</v>
-          </cell>
-          <cell r="P14">
-            <v>2993895.0759999999</v>
-          </cell>
-          <cell r="Q14">
-            <v>2982399.7850000001</v>
-          </cell>
-          <cell r="R14">
-            <v>3025785.1719999998</v>
-          </cell>
-          <cell r="S14">
-            <v>3051656.8859999999</v>
-          </cell>
-          <cell r="T14">
-            <v>2989742.4180000001</v>
-          </cell>
-          <cell r="U14">
-            <v>2903624.09</v>
-          </cell>
-          <cell r="V14">
-            <v>2878594.5249999999</v>
-          </cell>
-          <cell r="W14">
-            <v>2855866.051</v>
-          </cell>
-          <cell r="X14">
-            <v>2733759.3730000001</v>
-          </cell>
-          <cell r="Y14">
-            <v>2727828.2250000001</v>
-          </cell>
-          <cell r="Z14">
-            <v>2764524.6850000001</v>
-          </cell>
-          <cell r="AA14">
-            <v>2802672.5929999999</v>
-          </cell>
-          <cell r="AB14">
-            <v>2871201.1630000002</v>
-          </cell>
-          <cell r="AC14">
-            <v>2916833.0070000002</v>
-          </cell>
-          <cell r="AD14">
-            <v>2913294.4410000001</v>
-          </cell>
-          <cell r="AE14">
-            <v>2933290.0019999999</v>
-          </cell>
-          <cell r="AF14">
-            <v>2561060.2850000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>66.561000000000007</v>
-          </cell>
-          <cell r="C23">
-            <v>73.951999999999998</v>
-          </cell>
-          <cell r="D23">
-            <v>255.72200000000001</v>
-          </cell>
-          <cell r="E23">
-            <v>604.92399999999998</v>
-          </cell>
-          <cell r="F23">
-            <v>1620.8520000000001</v>
-          </cell>
-          <cell r="G23">
-            <v>2524.5300000000002</v>
-          </cell>
-          <cell r="H23">
-            <v>3705.12</v>
-          </cell>
-          <cell r="I23">
-            <v>5047.6080000000002</v>
-          </cell>
-          <cell r="J23">
-            <v>4765.5829999999996</v>
-          </cell>
-          <cell r="K23">
-            <v>5313.4340000000002</v>
-          </cell>
-          <cell r="L23">
-            <v>8271.7870000000003</v>
-          </cell>
-          <cell r="M23">
-            <v>9745.3700000000008</v>
-          </cell>
-          <cell r="N23">
-            <v>12927.373</v>
-          </cell>
-          <cell r="O23">
-            <v>16029.425999999999</v>
-          </cell>
-          <cell r="P23">
-            <v>21842.813999999998</v>
-          </cell>
-          <cell r="Q23">
-            <v>36383.362999999998</v>
-          </cell>
-          <cell r="R23">
-            <v>60234.623</v>
-          </cell>
-          <cell r="S23">
-            <v>84215.914000000004</v>
-          </cell>
-          <cell r="T23">
-            <v>103867.462</v>
-          </cell>
-          <cell r="U23">
-            <v>122786.58</v>
-          </cell>
-          <cell r="V23">
-            <v>139352.147</v>
-          </cell>
-          <cell r="W23">
-            <v>147215.421</v>
-          </cell>
-          <cell r="X23">
-            <v>156126.92000000001</v>
-          </cell>
-          <cell r="Y23">
-            <v>139655.07199999999</v>
-          </cell>
-          <cell r="Z23">
-            <v>150651.34</v>
-          </cell>
-          <cell r="AA23">
-            <v>150930.42199999999</v>
-          </cell>
-          <cell r="AB23">
-            <v>147009.54999999999</v>
-          </cell>
-          <cell r="AC23">
-            <v>160377.68700000001</v>
-          </cell>
-          <cell r="AD23">
-            <v>177034.125</v>
-          </cell>
-          <cell r="AE23">
-            <v>183488.10800000001</v>
-          </cell>
-          <cell r="AF23">
-            <v>185428.139</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>259</v>
-          </cell>
-          <cell r="C30">
-            <v>248</v>
-          </cell>
-          <cell r="D30">
-            <v>251</v>
-          </cell>
-          <cell r="E30">
-            <v>215</v>
-          </cell>
-          <cell r="F30">
-            <v>204</v>
-          </cell>
-          <cell r="G30">
-            <v>204</v>
-          </cell>
-          <cell r="H30">
-            <v>203</v>
-          </cell>
-          <cell r="I30">
-            <v>198</v>
-          </cell>
-          <cell r="J30">
-            <v>177</v>
-          </cell>
-          <cell r="K30">
-            <v>171</v>
-          </cell>
-          <cell r="L30">
-            <v>234</v>
-          </cell>
-          <cell r="M30">
-            <v>234</v>
-          </cell>
-          <cell r="N30">
-            <v>236</v>
-          </cell>
-          <cell r="O30">
-            <v>258</v>
-          </cell>
-          <cell r="P30">
-            <v>309</v>
-          </cell>
-          <cell r="Q30">
-            <v>303.56099999999998</v>
-          </cell>
-          <cell r="R30">
-            <v>308.73899999999998</v>
-          </cell>
-          <cell r="S30">
-            <v>307.25799999999998</v>
-          </cell>
-          <cell r="T30">
-            <v>306.15100000000001</v>
-          </cell>
-          <cell r="U30">
-            <v>348.80399999999997</v>
-          </cell>
-          <cell r="V30">
-            <v>407.24400000000003</v>
-          </cell>
-          <cell r="W30">
-            <v>482.81099999999998</v>
-          </cell>
-          <cell r="X30">
-            <v>482.53100000000001</v>
-          </cell>
-          <cell r="Y30">
-            <v>618.04999999999995</v>
-          </cell>
-          <cell r="Z30">
-            <v>716.37099999999998</v>
-          </cell>
-          <cell r="AA30">
-            <v>937.76900000000001</v>
-          </cell>
-          <cell r="AB30">
-            <v>1003.893</v>
-          </cell>
-          <cell r="AC30">
-            <v>1234.992</v>
-          </cell>
-          <cell r="AD30">
-            <v>1586.433</v>
-          </cell>
-          <cell r="AE30">
-            <v>2379.9699999999998</v>
-          </cell>
-          <cell r="AF30">
-            <v>3283.45</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2.8387323823146691E-3</v>
-          </cell>
-          <cell r="C36">
-            <v>3.1062861898334166E-3</v>
-          </cell>
-          <cell r="D36">
-            <v>1.0440156857140991E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>2.442633518792512E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>6.4845724346720937E-2</v>
-          </cell>
-          <cell r="G36">
-            <v>9.9575891968822536E-2</v>
-          </cell>
-          <cell r="H36">
-            <v>0.1417613100202022</v>
-          </cell>
-          <cell r="I36">
-            <v>0.1900387061462977</v>
-          </cell>
-          <cell r="J36">
-            <v>0.17250395738108454</v>
-          </cell>
-          <cell r="K36">
-            <v>0.18804975518925077</v>
-          </cell>
-          <cell r="L36">
-            <v>0.29250209310668995</v>
-          </cell>
-          <cell r="M36">
-            <v>0.33838956484565963</v>
-          </cell>
-          <cell r="N36">
-            <v>0.44292226797185663</v>
-          </cell>
-          <cell r="O36">
-            <v>0.54334542816902598</v>
-          </cell>
-          <cell r="P36">
-            <v>0.72282734166985985</v>
-          </cell>
-          <cell r="Q36">
-            <v>1.2024963649503719</v>
-          </cell>
-          <cell r="R36">
-            <v>1.9466677274927582</v>
-          </cell>
-          <cell r="S36">
-            <v>2.6778269298566646</v>
-          </cell>
-          <cell r="T36">
-            <v>3.3468759970900019</v>
-          </cell>
-          <cell r="U36">
-            <v>4.0419886523809776</v>
-          </cell>
-          <cell r="V36">
-            <v>4.5976293512192425</v>
-          </cell>
-          <cell r="W36">
-            <v>4.8787216238790965</v>
-          </cell>
-          <cell r="X36">
-            <v>5.3740580503461661</v>
-          </cell>
-          <cell r="Y36">
-            <v>4.8424949953973018</v>
-          </cell>
-          <cell r="Z36">
-            <v>5.136742826190047</v>
-          </cell>
-          <cell r="AA36">
-            <v>5.0774564812953304</v>
-          </cell>
-          <cell r="AB36">
-            <v>4.8396513277490403</v>
-          </cell>
-          <cell r="AC36">
-            <v>5.1797766065714175</v>
-          </cell>
-          <cell r="AD36">
-            <v>5.6914055186085006</v>
-          </cell>
-          <cell r="AE36">
-            <v>5.8424460960148963</v>
-          </cell>
-          <cell r="AF36">
-            <v>6.6930009642973936</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>1.1045983188646493E-2</v>
-          </cell>
-          <cell r="C37">
-            <v>1.0417013401648195E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>1.0247375552914448E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>8.6815237375338066E-3</v>
-          </cell>
-          <cell r="F37">
-            <v>8.1614655543695985E-3</v>
-          </cell>
-          <cell r="G37">
-            <v>8.0464411045381885E-3</v>
-          </cell>
-          <cell r="H37">
-            <v>7.7669673139064447E-3</v>
-          </cell>
-          <cell r="I37">
-            <v>7.4545534869124037E-3</v>
-          </cell>
-          <cell r="J37">
-            <v>6.407023118987114E-3</v>
-          </cell>
-          <cell r="K37">
-            <v>6.0519257672838091E-3</v>
-          </cell>
-          <cell r="L37">
-            <v>8.2745711158864997E-3</v>
-          </cell>
-          <cell r="M37">
-            <v>8.1252079883969864E-3</v>
-          </cell>
-          <cell r="N37">
-            <v>8.0859162369151232E-3</v>
-          </cell>
-          <cell r="O37">
-            <v>8.7453612167777382E-3</v>
-          </cell>
-          <cell r="P37">
-            <v>1.022549789491348E-2</v>
-          </cell>
-          <cell r="Q37">
-            <v>1.0032909795631038E-2</v>
-          </cell>
-          <cell r="R37">
-            <v>9.9778535597107778E-3</v>
-          </cell>
-          <cell r="S37">
-            <v>9.7699319253828805E-3</v>
-          </cell>
-          <cell r="T37">
-            <v>9.8649703540951185E-3</v>
-          </cell>
-          <cell r="U37">
-            <v>1.148221417931092E-2</v>
-          </cell>
-          <cell r="V37">
-            <v>1.3436154431893539E-2</v>
-          </cell>
-          <cell r="W37">
-            <v>1.6000364974989204E-2</v>
-          </cell>
-          <cell r="X37">
-            <v>1.6609240770852237E-2</v>
-          </cell>
-          <cell r="Y37">
-            <v>2.1430686254669661E-2</v>
-          </cell>
-          <cell r="Z37">
-            <v>2.4426026314406431E-2</v>
-          </cell>
-          <cell r="AA37">
-            <v>3.1547525170292308E-2</v>
-          </cell>
-          <cell r="AB37">
-            <v>3.3048819551981259E-2</v>
-          </cell>
-          <cell r="AC37">
-            <v>3.9886986715944144E-2</v>
-          </cell>
-          <cell r="AD37">
-            <v>5.1001655929909781E-2</v>
-          </cell>
-          <cell r="AE37">
-            <v>7.5780640972833907E-2</v>
-          </cell>
-          <cell r="AF37">
-            <v>0.11851563702649402</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>2.8574551105765059E-3</v>
-          </cell>
-          <cell r="C38">
-            <v>3.125734081788914E-3</v>
-          </cell>
-          <cell r="D38">
-            <v>1.046175391557721E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>2.4449755112426374E-2</v>
-          </cell>
-          <cell r="F38">
-            <v>6.4866248032159138E-2</v>
-          </cell>
-          <cell r="G38">
-            <v>9.9604527832753365E-2</v>
-          </cell>
-          <cell r="H38">
-            <v>0.14178801614426675</v>
-          </cell>
-          <cell r="I38">
-            <v>0.19006547477018251</v>
-          </cell>
-          <cell r="J38">
-            <v>0.17253143156496764</v>
-          </cell>
-          <cell r="K38">
-            <v>0.18807113158201938</v>
-          </cell>
-          <cell r="L38">
-            <v>0.29253936403812647</v>
-          </cell>
-          <cell r="M38">
-            <v>0.33842984365449097</v>
-          </cell>
-          <cell r="N38">
-            <v>0.44296636362523334</v>
-          </cell>
-          <cell r="O38">
-            <v>0.54340688297478579</v>
-          </cell>
-          <cell r="P38">
-            <v>0.72290514149364937</v>
-          </cell>
-          <cell r="Q38">
-            <v>1.2025872874827388</v>
-          </cell>
-          <cell r="R38">
-            <v>1.9467754113553768</v>
-          </cell>
-          <cell r="S38">
-            <v>2.6779507479994553</v>
-          </cell>
-          <cell r="T38">
-            <v>3.3470257353473829</v>
-          </cell>
-          <cell r="U38">
-            <v>4.0422025917565341</v>
-          </cell>
-          <cell r="V38">
-            <v>4.5979727411656315</v>
-          </cell>
-          <cell r="W38">
-            <v>4.8791559238080486</v>
-          </cell>
-          <cell r="X38">
-            <v>5.3747077827546335</v>
-          </cell>
-          <cell r="Y38">
-            <v>4.8434691111952999</v>
-          </cell>
-          <cell r="Z38">
-            <v>5.138007855067948</v>
-          </cell>
-          <cell r="AA38">
-            <v>5.0790882399783159</v>
-          </cell>
-          <cell r="AB38">
-            <v>4.8415182912656816</v>
-          </cell>
-          <cell r="AC38">
-            <v>5.1821995871497668</v>
-          </cell>
-          <cell r="AD38">
-            <v>5.6948306020637212</v>
-          </cell>
-          <cell r="AE38">
-            <v>5.848002224338865</v>
-          </cell>
-          <cell r="AF38">
-            <v>6.7029737910291054</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>99.990836781189145</v>
-          </cell>
-          <cell r="C39">
-            <v>99.991439567212666</v>
-          </cell>
-          <cell r="D39">
-            <v>99.982886923652828</v>
-          </cell>
-          <cell r="E39">
-            <v>99.969531445428288</v>
-          </cell>
-          <cell r="F39">
-            <v>99.929712138408689</v>
-          </cell>
-          <cell r="G39">
-            <v>99.894892376988508</v>
-          </cell>
-          <cell r="H39">
-            <v>99.853452745938441</v>
-          </cell>
-          <cell r="I39">
-            <v>99.805263080343209</v>
-          </cell>
-          <cell r="J39">
-            <v>99.823312618500921</v>
-          </cell>
-          <cell r="K39">
-            <v>99.808271346380437</v>
-          </cell>
-          <cell r="L39">
-            <v>99.703431379526847</v>
-          </cell>
-          <cell r="M39">
-            <v>99.657593005927623</v>
-          </cell>
-          <cell r="N39">
-            <v>99.552982215454151</v>
-          </cell>
-          <cell r="O39">
-            <v>99.452390903167057</v>
-          </cell>
-          <cell r="P39">
-            <v>99.271859866875317</v>
-          </cell>
-          <cell r="Q39">
-            <v>98.792258882299279</v>
-          </cell>
-          <cell r="R39">
-            <v>98.048372642072351</v>
-          </cell>
-          <cell r="S39">
-            <v>97.317497615670845</v>
-          </cell>
-          <cell r="T39">
-            <v>96.648257686769213</v>
-          </cell>
-          <cell r="U39">
-            <v>95.952597585220943</v>
-          </cell>
-          <cell r="V39">
-            <v>95.397331513493313</v>
-          </cell>
-          <cell r="W39">
-            <v>95.114719502703238</v>
-          </cell>
-          <cell r="X39">
-            <v>94.618343770415109</v>
-          </cell>
-          <cell r="Y39">
-            <v>95.14678504974286</v>
-          </cell>
-          <cell r="Z39">
-            <v>94.850709516682969</v>
-          </cell>
-          <cell r="AA39">
-            <v>94.908737437415226</v>
-          </cell>
-          <cell r="AB39">
-            <v>95.144126358906163</v>
-          </cell>
-          <cell r="AC39">
-            <v>94.800098388882418</v>
-          </cell>
-          <cell r="AD39">
-            <v>94.282099505103133</v>
-          </cell>
-          <cell r="AE39">
-            <v>94.112846869715199</v>
-          </cell>
-          <cell r="AF39">
-            <v>93.230182660571984</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="R44">
-            <v>2.8387323823146691E-3</v>
-          </cell>
-          <cell r="S44">
-            <v>2.8388342733483983E-3</v>
-          </cell>
-          <cell r="T44">
-            <v>2.9209778602347688E-3</v>
-          </cell>
-          <cell r="U44">
-            <v>2.9542840979442757E-3</v>
-          </cell>
-          <cell r="AA44">
-            <v>0</v>
-          </cell>
-          <cell r="AD44">
-            <v>1990</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="R45">
-            <v>3.1062861898334166E-3</v>
-          </cell>
-          <cell r="S45">
-            <v>2.8390093508528897E-3</v>
-          </cell>
-          <cell r="T45">
-            <v>2.9962746618037465E-3</v>
-          </cell>
-          <cell r="U45">
-            <v>3.0556921618873022E-3</v>
-          </cell>
-          <cell r="AA45">
-            <v>1.9590831832388808E-5</v>
-          </cell>
-          <cell r="AD45">
-            <v>1991</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="R46">
-            <v>1.0440156857140991E-2</v>
-          </cell>
-          <cell r="S46">
-            <v>2.8394852608056124E-3</v>
-          </cell>
-          <cell r="T46">
-            <v>3.1405026432502364E-3</v>
-          </cell>
-          <cell r="U46">
-            <v>3.2460932775422052E-3</v>
-          </cell>
-          <cell r="AA46">
-            <v>5.6374062795067316E-5</v>
-          </cell>
-          <cell r="AD46">
-            <v>1992</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="R47">
-            <v>2.442633518792512E-2</v>
-          </cell>
-          <cell r="S47">
-            <v>2.8407789178399056E-3</v>
-          </cell>
-          <cell r="T47">
-            <v>3.4167547901995895E-3</v>
-          </cell>
-          <cell r="U47">
-            <v>3.6035782936188576E-3</v>
-          </cell>
-          <cell r="AA47">
-            <v>1.2543591606633379E-4</v>
-          </cell>
-          <cell r="AD47">
-            <v>1993</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="R48">
-            <v>6.4845724346720937E-2</v>
-          </cell>
-          <cell r="S48">
-            <v>2.8442954397201264E-3</v>
-          </cell>
-          <cell r="T48">
-            <v>3.945844732144807E-3</v>
-          </cell>
-          <cell r="U48">
-            <v>4.2747425093629561E-3</v>
-          </cell>
-          <cell r="AA48">
-            <v>2.5509685989371018E-4</v>
-          </cell>
-          <cell r="AD48">
-            <v>1994</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="R49">
-            <v>9.9575891968822536E-2</v>
-          </cell>
-          <cell r="S49">
-            <v>2.8538543185643835E-3</v>
-          </cell>
-          <cell r="T49">
-            <v>4.9590361507552087E-3</v>
-          </cell>
-          <cell r="U49">
-            <v>5.5347255495519741E-3</v>
-          </cell>
-          <cell r="AA49">
-            <v>4.9851059734434486E-4</v>
-          </cell>
-          <cell r="AD49">
-            <v>1995</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="R50">
-            <v>0.1417613100202022</v>
-          </cell>
-          <cell r="S50">
-            <v>2.8798379071846977E-3</v>
-          </cell>
-          <cell r="T50">
-            <v>6.8987384180365235E-3</v>
-          </cell>
-          <cell r="U50">
-            <v>7.8997195882712333E-3</v>
-          </cell>
-          <cell r="AA50">
-            <v>9.5539931699470295E-4</v>
-          </cell>
-          <cell r="AD50">
-            <v>1996</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="R51">
-            <v>0.1900387061462977</v>
-          </cell>
-          <cell r="S51">
-            <v>2.950467603982077E-3</v>
-          </cell>
-          <cell r="T51">
-            <v>1.0610259663277071E-2</v>
-          </cell>
-          <cell r="U51">
-            <v>1.2337373011200779E-2</v>
-          </cell>
-          <cell r="AA51">
-            <v>1.8127011779974012E-3</v>
-          </cell>
-          <cell r="AD51">
-            <v>1997</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="R52">
-            <v>0.17250395738108454</v>
-          </cell>
-          <cell r="S52">
-            <v>3.1424514889171352E-3</v>
-          </cell>
-          <cell r="T52">
-            <v>1.7704978119085734E-2</v>
-          </cell>
-          <cell r="U52">
-            <v>2.0658668866421995E-2</v>
-          </cell>
-          <cell r="AA52">
-            <v>3.4202765658756474E-3</v>
-          </cell>
-          <cell r="AD52">
-            <v>1998</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="R53">
-            <v>0.18804975518925077</v>
-          </cell>
-          <cell r="S53">
-            <v>3.6642621142009319E-3</v>
-          </cell>
-          <cell r="T53">
-            <v>3.1240960944001459E-2</v>
-          </cell>
-          <cell r="U53">
-            <v>3.6241777846752005E-2</v>
-          </cell>
-          <cell r="AA53">
-            <v>6.4307478793892347E-3</v>
-          </cell>
-          <cell r="AD53">
-            <v>1999</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="R54">
-            <v>0.29250209310668995</v>
-          </cell>
-          <cell r="S54">
-            <v>5.0822791596292953E-3</v>
-          </cell>
-          <cell r="T54">
-            <v>5.6972450913600557E-2</v>
-          </cell>
-          <cell r="U54">
-            <v>6.5346568186217632E-2</v>
-          </cell>
-          <cell r="AA54">
-            <v>1.2053447208091045E-2</v>
-          </cell>
-          <cell r="AD54">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="R55">
-            <v>0.33838956484565963</v>
-          </cell>
-          <cell r="S55">
-            <v>8.9338126744349898E-3</v>
-          </cell>
-          <cell r="T55">
-            <v>0.10555076257255172</v>
-          </cell>
-          <cell r="U55">
-            <v>0.1194182024875451</v>
-          </cell>
-          <cell r="AA55">
-            <v>2.2499443841010467E-2</v>
-          </cell>
-          <cell r="AD55">
-            <v>2001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="R56">
-            <v>0.44292226797185663</v>
-          </cell>
-          <cell r="S56">
-            <v>1.9380982438591279E-2</v>
-          </cell>
-          <cell r="T56">
-            <v>0.19607770919972833</v>
-          </cell>
-          <cell r="U56">
-            <v>0.21882042334605711</v>
-          </cell>
-          <cell r="AA56">
-            <v>4.1702770646452295E-2</v>
-          </cell>
-          <cell r="AD56">
-            <v>2002</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="R57">
-            <v>0.54334542816902598</v>
-          </cell>
-          <cell r="S57">
-            <v>4.7614990859803141E-2</v>
-          </cell>
-          <cell r="T57">
-            <v>0.36076403921939321</v>
-          </cell>
-          <cell r="U57">
-            <v>0.39782044743386463</v>
-          </cell>
-          <cell r="AA57">
-            <v>7.6283446320015727E-2</v>
-          </cell>
-          <cell r="AD57">
-            <v>2003</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="R58">
-            <v>0.72282734166985985</v>
-          </cell>
-          <cell r="S58">
-            <v>0.12316939496599436</v>
-          </cell>
-          <cell r="T58">
-            <v>0.64764372974019202</v>
-          </cell>
-          <cell r="U58">
-            <v>0.70770031415073398</v>
-          </cell>
-          <cell r="AA58">
-            <v>0.13614855093836212</v>
-          </cell>
-          <cell r="AD58">
-            <v>2004</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="R59">
-            <v>1.2024963649503719</v>
-          </cell>
-          <cell r="S59">
-            <v>0.32012551793046634</v>
-          </cell>
-          <cell r="T59">
-            <v>1.1115577199956446</v>
-          </cell>
-          <cell r="U59">
-            <v>1.2070659747328321</v>
-          </cell>
-          <cell r="AA59">
-            <v>0.2326200572362237</v>
-          </cell>
-          <cell r="AD59">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="R60">
-            <v>1.9466677274927582</v>
-          </cell>
-          <cell r="S60">
-            <v>0.80032561922860379</v>
-          </cell>
-          <cell r="T60">
-            <v>1.7784742586184756</v>
-          </cell>
-          <cell r="U60">
-            <v>1.920960178309417</v>
-          </cell>
-          <cell r="AA60">
-            <v>0.37053592649336248</v>
-          </cell>
-          <cell r="AD60">
-            <v>2006</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="R61">
-            <v>2.6778269298566646</v>
-          </cell>
-          <cell r="S61">
-            <v>1.8021004722294149</v>
-          </cell>
-          <cell r="T61">
-            <v>2.591307669476866</v>
-          </cell>
-          <cell r="U61">
-            <v>2.7770910477597801</v>
-          </cell>
-          <cell r="AA61">
-            <v>0.53593022787103162</v>
-          </cell>
-          <cell r="AD61">
-            <v>2007</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="R62">
-            <v>3.3468759970900019</v>
-          </cell>
-          <cell r="S62">
-            <v>3.347919848339854</v>
-          </cell>
-          <cell r="T62">
-            <v>3.4041410803352563</v>
-          </cell>
-          <cell r="U62">
-            <v>3.6043238515688611</v>
-          </cell>
-          <cell r="AA62">
-            <v>0.69574176667295784</v>
-          </cell>
-          <cell r="AD62">
-            <v>2008</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="R63">
-            <v>4.0419886523809776</v>
-          </cell>
-          <cell r="S63">
-            <v>4.8937392244502931</v>
-          </cell>
-          <cell r="T63">
-            <v>4.071057618958088</v>
-          </cell>
-          <cell r="U63">
-            <v>4.2482473282355881</v>
-          </cell>
-          <cell r="AA63">
-            <v>0.82014012370492317</v>
-          </cell>
-          <cell r="AD63">
-            <v>2009</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="R64">
-            <v>4.5976293512192425</v>
-          </cell>
-          <cell r="S64">
-            <v>5.8955140774511037</v>
-          </cell>
-          <cell r="T64">
-            <v>4.5349716092135397</v>
-          </cell>
-          <cell r="U64">
-            <v>4.6685774112106717</v>
-          </cell>
-          <cell r="AA64">
-            <v>0.90134289643792098</v>
-          </cell>
-          <cell r="AD64">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="R65">
-            <v>4.8787216238790965</v>
-          </cell>
-          <cell r="S65">
-            <v>6.3757141787492433</v>
-          </cell>
-          <cell r="T65">
-            <v>4.8218512997343392</v>
-          </cell>
-          <cell r="U65">
-            <v>4.9119071582461444</v>
-          </cell>
-          <cell r="AA65">
-            <v>0.94835130946381097</v>
-          </cell>
-          <cell r="AD65">
-            <v>2011</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="R66">
-            <v>5.3740580503461661</v>
-          </cell>
-          <cell r="S66">
-            <v>6.572670301713714</v>
-          </cell>
-          <cell r="T66">
-            <v>4.9865376297540038</v>
-          </cell>
-          <cell r="U66">
-            <v>5.04300142101342</v>
-          </cell>
-          <cell r="AA66">
-            <v>0.97367716182903896</v>
-          </cell>
-          <cell r="AD66">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="R67">
-            <v>4.8424949953973018</v>
-          </cell>
-          <cell r="S67">
-            <v>6.6482247058199055</v>
-          </cell>
-          <cell r="T67">
-            <v>5.077064576381181</v>
-          </cell>
-          <cell r="U67">
-            <v>5.1108896600241884</v>
-          </cell>
-          <cell r="AA67">
-            <v>0.98679236216068311</v>
-          </cell>
-          <cell r="AD67">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="R68">
-            <v>5.136742826190047</v>
-          </cell>
-          <cell r="S68">
-            <v>6.676458714241118</v>
-          </cell>
-          <cell r="T68">
-            <v>5.1256428880401312</v>
-          </cell>
-          <cell r="U68">
-            <v>5.1453248487781362</v>
-          </cell>
-          <cell r="AA68">
-            <v>0.99344483106467651</v>
-          </cell>
-          <cell r="AD68">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="R69">
-            <v>5.0774564812953304</v>
-          </cell>
-          <cell r="S69">
-            <v>6.6869058840052737</v>
-          </cell>
-          <cell r="T69">
-            <v>5.1513743780097299</v>
-          </cell>
-          <cell r="U69">
-            <v>5.1626076671844645</v>
-          </cell>
-          <cell r="AA69">
-            <v>0.99678366602338675</v>
-          </cell>
-          <cell r="AD69">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="R70">
-            <v>4.8396513277490403</v>
-          </cell>
-          <cell r="S70">
-            <v>6.6907574175200795</v>
-          </cell>
-          <cell r="T70">
-            <v>5.1649103608346456</v>
-          </cell>
-          <cell r="U70">
-            <v>5.1712357134406686</v>
-          </cell>
-          <cell r="AA70">
-            <v>0.99845050194032459</v>
-          </cell>
-          <cell r="AD70">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="R71">
-            <v>5.1797766065714175</v>
-          </cell>
-          <cell r="S71">
-            <v>6.6921754345655069</v>
-          </cell>
-          <cell r="T71">
-            <v>5.1720050792904546</v>
-          </cell>
-          <cell r="U71">
-            <v>5.1755316032545817</v>
-          </cell>
-          <cell r="AA71">
-            <v>0.99928041675816515</v>
-          </cell>
-          <cell r="AD71">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="R72">
-            <v>5.6914055186085006</v>
-          </cell>
-          <cell r="S72">
-            <v>6.6926972451907911</v>
-          </cell>
-          <cell r="T72">
-            <v>5.1757166005356963</v>
-          </cell>
-          <cell r="U72">
-            <v>5.1776676814200817</v>
-          </cell>
-          <cell r="AA72">
-            <v>0.99969308165377602</v>
-          </cell>
-          <cell r="AD72">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="R73">
-            <v>5.8424460960148963</v>
-          </cell>
-          <cell r="S73">
-            <v>6.6928892290757274</v>
-          </cell>
-          <cell r="T73">
-            <v>5.1776563028029772</v>
-          </cell>
-          <cell r="U73">
-            <v>5.1787291185886195</v>
-          </cell>
-          <cell r="AA73">
-            <v>0.99989813869027711</v>
-          </cell>
-          <cell r="AD73">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="R74">
-            <v>6.6930009642973936</v>
-          </cell>
-          <cell r="S74">
-            <v>6.6929598587725234</v>
-          </cell>
-          <cell r="T74">
-            <v>5.1786694942215874</v>
-          </cell>
-          <cell r="U74">
-            <v>5.1792563834999861</v>
-          </cell>
-          <cell r="AA74">
-            <v>1</v>
-          </cell>
-          <cell r="AD74">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="AA80">
-            <v>259</v>
-          </cell>
-          <cell r="AC80">
-            <v>259.00000001128535</v>
-          </cell>
-          <cell r="AD80">
-            <v>259.00015293225465</v>
-          </cell>
-          <cell r="AE80">
-            <v>259.00017591397392</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="AA81">
-            <v>248</v>
-          </cell>
-          <cell r="AC81">
-            <v>259.00000003067669</v>
-          </cell>
-          <cell r="AD81">
-            <v>259.00027866072475</v>
-          </cell>
-          <cell r="AE81">
-            <v>259.00031893747757</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="AA82">
-            <v>251</v>
-          </cell>
-          <cell r="AC82">
-            <v>259.00000008338793</v>
-          </cell>
-          <cell r="AD82">
-            <v>259.00050775290708</v>
-          </cell>
-          <cell r="AE82">
-            <v>259.00057824351325</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="AA83">
-            <v>215</v>
-          </cell>
-          <cell r="AC83">
-            <v>259.00000022667189</v>
-          </cell>
-          <cell r="AD83">
-            <v>259.00092518599024</v>
-          </cell>
-          <cell r="AE83">
-            <v>259.00104837337193</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="AA84">
-            <v>204</v>
-          </cell>
-          <cell r="AC84">
-            <v>259.00000061615805</v>
-          </cell>
-          <cell r="AD84">
-            <v>259.0016857983627</v>
-          </cell>
-          <cell r="AE84">
-            <v>259.00190073332408</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="AA85">
-            <v>204</v>
-          </cell>
-          <cell r="AC85">
-            <v>259.00000167489122</v>
-          </cell>
-          <cell r="AD85">
-            <v>259.00307172348272</v>
-          </cell>
-          <cell r="AE85">
-            <v>259.00344608818455</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="AA86">
-            <v>203</v>
-          </cell>
-          <cell r="AC86">
-            <v>259.00000455282634</v>
-          </cell>
-          <cell r="AD86">
-            <v>259.00559704043411</v>
-          </cell>
-          <cell r="AE86">
-            <v>259.00624786396941</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="AA87">
-            <v>198</v>
-          </cell>
-          <cell r="AC87">
-            <v>259.00001237586508</v>
-          </cell>
-          <cell r="AD87">
-            <v>259.01019845708555</v>
-          </cell>
-          <cell r="AE87">
-            <v>259.01132756871499</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="AA88">
-            <v>177</v>
-          </cell>
-          <cell r="AC88">
-            <v>259.00003364108898</v>
-          </cell>
-          <cell r="AD88">
-            <v>259.01858274887564</v>
-          </cell>
-          <cell r="AE88">
-            <v>259.020537225304</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="AA89">
-            <v>171</v>
-          </cell>
-          <cell r="AC89">
-            <v>259.00009144595998</v>
-          </cell>
-          <cell r="AD89">
-            <v>259.03385980505522</v>
-          </cell>
-          <cell r="AE89">
-            <v>259.03723459832042</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="AA90">
-            <v>234</v>
-          </cell>
-          <cell r="AC90">
-            <v>259.00024857588471</v>
-          </cell>
-          <cell r="AD90">
-            <v>259.06169601952377</v>
-          </cell>
-          <cell r="AE90">
-            <v>259.06750738157228</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="AA91">
-            <v>234</v>
-          </cell>
-          <cell r="AC91">
-            <v>259.00067569926239</v>
-          </cell>
-          <cell r="AD91">
-            <v>259.11241559182082</v>
-          </cell>
-          <cell r="AE91">
-            <v>259.12239261617731</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="AA92">
-            <v>236</v>
-          </cell>
-          <cell r="AC92">
-            <v>259.00183674067131</v>
-          </cell>
-          <cell r="AD92">
-            <v>259.20482830431752</v>
-          </cell>
-          <cell r="AE92">
-            <v>259.22190030218553</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="AA93">
-            <v>258</v>
-          </cell>
-          <cell r="AC93">
-            <v>259.00499277616609</v>
-          </cell>
-          <cell r="AD93">
-            <v>259.37320072534158</v>
-          </cell>
-          <cell r="AE93">
-            <v>259.40230737427441</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="AA94">
-            <v>309</v>
-          </cell>
-          <cell r="AC94">
-            <v>259.01357175333453</v>
-          </cell>
-          <cell r="AD94">
-            <v>259.67994708073206</v>
-          </cell>
-          <cell r="AE94">
-            <v>259.72937841285631</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="AA95">
-            <v>303.56099999999998</v>
-          </cell>
-          <cell r="AC95">
-            <v>259.0368917071869</v>
-          </cell>
-          <cell r="AD95">
-            <v>260.23871541214208</v>
-          </cell>
-          <cell r="AE95">
-            <v>260.32232245354993</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="AA96">
-            <v>308.73899999999998</v>
-          </cell>
-          <cell r="AC96">
-            <v>259.10028099855799</v>
-          </cell>
-          <cell r="AD96">
-            <v>261.25632690649741</v>
-          </cell>
-          <cell r="AE96">
-            <v>261.39718089537928</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="AA97">
-            <v>307.25799999999998</v>
-          </cell>
-          <cell r="AC97">
-            <v>259.2725841935669</v>
-          </cell>
-          <cell r="AD97">
-            <v>263.10877566407487</v>
-          </cell>
-          <cell r="AE97">
-            <v>263.3453213726483</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="AA98">
-            <v>306.15100000000001</v>
-          </cell>
-          <cell r="AC98">
-            <v>259.74090286498262</v>
-          </cell>
-          <cell r="AD98">
-            <v>266.47832510608407</v>
-          </cell>
-          <cell r="AE98">
-            <v>266.87513076195461</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="AA99">
-            <v>348.80399999999997</v>
-          </cell>
-          <cell r="AC99">
-            <v>261.01355586701499</v>
-          </cell>
-          <cell r="AD99">
-            <v>272.59875336160854</v>
-          </cell>
-          <cell r="AE99">
-            <v>273.26665659620903</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="AA100">
-            <v>407.24400000000003</v>
-          </cell>
-          <cell r="AC100">
-            <v>264.47026021753635</v>
-          </cell>
-          <cell r="AD100">
-            <v>283.68728832417446</v>
-          </cell>
-          <cell r="AE100">
-            <v>284.82510675647308</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="AA101">
-            <v>482.81099999999998</v>
-          </cell>
-          <cell r="AC101">
-            <v>273.84646765168526</v>
-          </cell>
-          <cell r="AD101">
-            <v>303.68332015471969</v>
-          </cell>
-          <cell r="AE101">
-            <v>305.67358582950919</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="AA102">
-            <v>482.53100000000001</v>
-          </cell>
-          <cell r="AC102">
-            <v>299.18614582586963</v>
-          </cell>
-          <cell r="AD102">
-            <v>339.44127722355194</v>
-          </cell>
-          <cell r="AE102">
-            <v>343.08539749649407</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="AA103">
-            <v>618.04999999999995</v>
-          </cell>
-          <cell r="AC103">
-            <v>366.99530193757488</v>
-          </cell>
-          <cell r="AD103">
-            <v>402.43718213189186</v>
-          </cell>
-          <cell r="AE103">
-            <v>409.53516030924072</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="AA104">
-            <v>716.37099999999998</v>
-          </cell>
-          <cell r="AC104">
-            <v>543.76101992911822</v>
-          </cell>
-          <cell r="AD104">
-            <v>510.55166191104354</v>
-          </cell>
-          <cell r="AE104">
-            <v>525.21563370529293</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="AA105">
-            <v>937.76900000000001</v>
-          </cell>
-          <cell r="AC105">
-            <v>974.73475361135922</v>
-          </cell>
-          <cell r="AD105">
-            <v>688.0214532382804</v>
-          </cell>
-          <cell r="AE105">
-            <v>719.03056873613957</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="AA106">
-            <v>1003.893</v>
-          </cell>
-          <cell r="AC106">
-            <v>1873.815465047295</v>
-          </cell>
-          <cell r="AD106">
-            <v>959.08521854639616</v>
-          </cell>
-          <cell r="AE106">
-            <v>1021.9021179852421</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="AA107">
-            <v>1234.992</v>
-          </cell>
-          <cell r="AC107">
-            <v>3261.1695</v>
-          </cell>
-          <cell r="AD107">
-            <v>1330.6947846353928</v>
-          </cell>
-          <cell r="AE107">
-            <v>1443.145142142125</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="AA108">
-            <v>1586.433</v>
-          </cell>
-          <cell r="AC108">
-            <v>4648.5235349527047</v>
-          </cell>
-          <cell r="AD108">
-            <v>1771.2249999999999</v>
-          </cell>
-          <cell r="AE108">
-            <v>1936.918694897797</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="AA109">
-            <v>2379.9699999999998</v>
-          </cell>
-          <cell r="AC109">
-            <v>5547.6042463886397</v>
-          </cell>
-          <cell r="AD109">
-            <v>2211.7552153646066</v>
-          </cell>
-          <cell r="AE109">
-            <v>2405.8917860279157</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="AA110">
-            <v>3283.45</v>
-          </cell>
-          <cell r="AB110">
-            <v>3283.45</v>
-          </cell>
-          <cell r="AC110">
-            <v>5978.5779800708824</v>
-          </cell>
-          <cell r="AD110">
-            <v>2583.3647814536034</v>
-          </cell>
-          <cell r="AE110">
-            <v>2766.7212151020681</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="AB111">
-            <v>4186.93</v>
-          </cell>
-          <cell r="AC111">
-            <v>6155.3436980624256</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="AB112">
-            <v>4980.4669999999996</v>
-          </cell>
-          <cell r="AC112">
-            <v>6223.1528541741309</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="AB113">
-            <v>5331.9079999999994</v>
-          </cell>
-          <cell r="AC113">
-            <v>6248.4925323483158</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="AB114">
-            <v>5563.0069999999996</v>
-          </cell>
-          <cell r="AC114">
-            <v>6257.8687397824642</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="AB115">
-            <v>5629.1309999999994</v>
-          </cell>
-          <cell r="AC115">
-            <v>6261.3254441329855</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="AB116">
-            <v>5850.5289999999995</v>
-          </cell>
-          <cell r="AC116">
-            <v>6262.5980971350173</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="AB117">
-            <v>5948.8499999999995</v>
-          </cell>
-          <cell r="AC117">
-            <v>6263.0664158064337</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="AB118">
-            <v>6084.3689999999997</v>
-          </cell>
-          <cell r="AC118">
-            <v>6263.2387190014424</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="AB119">
-            <v>6084.0889999999999</v>
-          </cell>
-          <cell r="AC119">
-            <v>6263.3021082928135</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="AB120">
-            <v>6159.6559999999999</v>
-          </cell>
-          <cell r="AC120">
-            <v>6263.3254282466651</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="AB121">
-            <v>6218.0959999999995</v>
-          </cell>
-          <cell r="AC121">
-            <v>6263.3340072238334</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="AB122">
-            <v>6260.7489999999998</v>
-          </cell>
-          <cell r="AC122">
-            <v>6263.337163259328</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="AB123">
-            <v>6259.6419999999998</v>
-          </cell>
-          <cell r="AC123">
-            <v>6263.3383243007374</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="AB124">
-            <v>6258.1610000000001</v>
-          </cell>
-          <cell r="AC124">
-            <v>6263.3387514241149</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="AB125">
-            <v>6263.3389999999999</v>
-          </cell>
-          <cell r="AC125">
-            <v>6263.3389085540402</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="Structure"/>
-      <sheetName val="Sheet 1"/>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="C5">
-            <v>63.202425590120903</v>
-          </cell>
-          <cell r="D5">
-            <v>8.6602613693489889</v>
-          </cell>
-          <cell r="E5">
-            <v>26.769774941132031</v>
-          </cell>
-          <cell r="F5">
-            <v>1.2943849975267592</v>
-          </cell>
-          <cell r="G5">
-            <v>7.3153101871318113E-2</v>
-          </cell>
-          <cell r="I5">
-            <v>620.13774999999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>63.096068108682211</v>
-          </cell>
-          <cell r="D6">
-            <v>8.7235923536603455</v>
-          </cell>
-          <cell r="E6">
-            <v>26.854007901982207</v>
-          </cell>
-          <cell r="F6">
-            <v>1.2768606326883052</v>
-          </cell>
-          <cell r="G6">
-            <v>4.9471002986929385E-2</v>
-          </cell>
-          <cell r="I6">
-            <v>629.37878999999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>62.748848680291182</v>
-          </cell>
-          <cell r="D7">
-            <v>8.6362845508117321</v>
-          </cell>
-          <cell r="E7">
-            <v>27.203321976506729</v>
-          </cell>
-          <cell r="F7">
-            <v>1.3170565637847864</v>
-          </cell>
-          <cell r="G7">
-            <v>9.4488228605568145E-2</v>
-          </cell>
-          <cell r="I7">
-            <v>651.71081000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>62.874939351392889</v>
-          </cell>
-          <cell r="D8">
-            <v>8.9691006079454869</v>
-          </cell>
-          <cell r="E8">
-            <v>26.769979946774487</v>
-          </cell>
-          <cell r="F8">
-            <v>1.3519671366874459</v>
-          </cell>
-          <cell r="G8">
-            <v>3.401143618380887E-2</v>
-          </cell>
-          <cell r="I8">
-            <v>657.45533</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>62.773435147219246</v>
-          </cell>
-          <cell r="D9">
-            <v>9.1818063078147922</v>
-          </cell>
-          <cell r="E9">
-            <v>26.662261981409362</v>
-          </cell>
-          <cell r="F9">
-            <v>1.3478934221434371</v>
-          </cell>
-          <cell r="G9">
-            <v>3.4601632993742366E-2</v>
-          </cell>
-          <cell r="I9">
-            <v>662.94559000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>62.994213030646726</v>
-          </cell>
-          <cell r="D10">
-            <v>9.1688510295611678</v>
-          </cell>
-          <cell r="E10">
-            <v>26.366782836201551</v>
-          </cell>
-          <cell r="F10">
-            <v>1.4337031123327466</v>
-          </cell>
-          <cell r="G10">
-            <v>3.6449991257808498E-2</v>
-          </cell>
-          <cell r="I10">
-            <v>675.11676</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>62.626369622183745</v>
-          </cell>
-          <cell r="D11">
-            <v>9.4237272284181444</v>
-          </cell>
-          <cell r="E11">
-            <v>26.501471373767789</v>
-          </cell>
-          <cell r="F11">
-            <v>1.4192381085985708</v>
-          </cell>
-          <cell r="G11">
-            <v>2.9196544672677339E-2</v>
-          </cell>
-          <cell r="I11">
-            <v>695.01374999999996</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>62.424781268579935</v>
-          </cell>
-          <cell r="D12">
-            <v>9.630953609829227</v>
-          </cell>
-          <cell r="E12">
-            <v>26.482661584692302</v>
-          </cell>
-          <cell r="F12">
-            <v>1.4282568725552758</v>
-          </cell>
-          <cell r="G12">
-            <v>3.3346664343274227E-2</v>
-          </cell>
-          <cell r="I12">
-            <v>705.34790999999996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>62.073830599930972</v>
-          </cell>
-          <cell r="D13">
-            <v>9.8431105242230874</v>
-          </cell>
-          <cell r="E13">
-            <v>26.597191290728833</v>
-          </cell>
-          <cell r="F13">
-            <v>1.4594027846726845</v>
-          </cell>
-          <cell r="G13">
-            <v>2.646480044442312E-2</v>
-          </cell>
-          <cell r="I13">
-            <v>733.04917</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>62.0246611549954</v>
-          </cell>
-          <cell r="D14">
-            <v>9.916873446120638</v>
-          </cell>
-          <cell r="E14">
-            <v>26.603918712773666</v>
-          </cell>
-          <cell r="F14">
-            <v>1.4327218055491147</v>
-          </cell>
-          <cell r="G14">
-            <v>2.1824880561181041E-2</v>
-          </cell>
-          <cell r="I14">
-            <v>749.96974</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>61.4040953507212</v>
-          </cell>
-          <cell r="D15">
-            <v>10.411976673756337</v>
-          </cell>
-          <cell r="E15">
-            <v>26.780717121463439</v>
-          </cell>
-          <cell r="F15">
-            <v>1.3807878999357468</v>
-          </cell>
-          <cell r="G15">
-            <v>2.242295412328103E-2</v>
-          </cell>
-          <cell r="I15">
-            <v>747.09157000000005</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>61.100008758533122</v>
-          </cell>
-          <cell r="D16">
-            <v>10.612642263325711</v>
-          </cell>
-          <cell r="E16">
-            <v>26.868794745646646</v>
-          </cell>
-          <cell r="F16">
-            <v>1.3760740999465311</v>
-          </cell>
-          <cell r="G16">
-            <v>4.2480132547988797E-2</v>
-          </cell>
-          <cell r="I16">
-            <v>761.88557000000003</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>61.356041405051144</v>
-          </cell>
-          <cell r="D17">
-            <v>10.596960986980726</v>
-          </cell>
-          <cell r="E17">
-            <v>26.616770960251866</v>
-          </cell>
-          <cell r="F17">
-            <v>1.4003418062537156</v>
-          </cell>
-          <cell r="G17">
-            <v>2.9884841462549518E-2</v>
-          </cell>
-          <cell r="I17">
-            <v>771.36095999999998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>61.151474432730559</v>
-          </cell>
-          <cell r="D18">
-            <v>10.90386083122068</v>
-          </cell>
-          <cell r="E18">
-            <v>26.505680184320802</v>
-          </cell>
-          <cell r="F18">
-            <v>1.4137225870361809</v>
-          </cell>
-          <cell r="G18">
-            <v>2.5261964691785595E-2</v>
-          </cell>
-          <cell r="I18">
-            <v>781.05564000000004</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>60.516644353404381</v>
-          </cell>
-          <cell r="D19">
-            <v>11.13653926716375</v>
-          </cell>
-          <cell r="E19">
-            <v>26.946939089005252</v>
-          </cell>
-          <cell r="F19">
-            <v>1.3757211618966219</v>
-          </cell>
-          <cell r="G19">
-            <v>2.4156128530005892E-2</v>
-          </cell>
-          <cell r="I19">
-            <v>797.85136</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>59.897580591104102</v>
-          </cell>
-          <cell r="D20">
-            <v>11.485822561277338</v>
-          </cell>
-          <cell r="E20">
-            <v>27.291422934560885</v>
-          </cell>
-          <cell r="F20">
-            <v>1.3016226828973716</v>
-          </cell>
-          <cell r="G20">
-            <v>2.3552485891048833E-2</v>
-          </cell>
-          <cell r="I20">
-            <v>796.34906000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>59.362695773595661</v>
-          </cell>
-          <cell r="D21">
-            <v>11.74747525721102</v>
-          </cell>
-          <cell r="E21">
-            <v>27.6068635070136</v>
-          </cell>
-          <cell r="F21">
-            <v>1.2634153677893687</v>
-          </cell>
-          <cell r="G21">
-            <v>1.9551337955931867E-2</v>
-          </cell>
-          <cell r="I21">
-            <v>804.13933999999995</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>59.237227800509572</v>
-          </cell>
-          <cell r="D22">
-            <v>12.067287610175418</v>
-          </cell>
-          <cell r="E22">
-            <v>27.426016242875313</v>
-          </cell>
-          <cell r="F22">
-            <v>1.2495877150357615</v>
-          </cell>
-          <cell r="G22">
-            <v>1.9879402307714195E-2</v>
-          </cell>
-          <cell r="I22">
-            <v>813.60595000000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>59.781661209265934</v>
-          </cell>
-          <cell r="D23">
-            <v>11.970301829444484</v>
-          </cell>
-          <cell r="E23">
-            <v>26.903899628348405</v>
-          </cell>
-          <cell r="F23">
-            <v>1.3203759289796502</v>
-          </cell>
-          <cell r="G23">
-            <v>2.3761403961537791E-2</v>
-          </cell>
-          <cell r="I23">
-            <v>795.11294999999996</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>60.683000476396799</v>
-          </cell>
-          <cell r="D24">
-            <v>11.89465508545357</v>
-          </cell>
-          <cell r="E24">
-            <v>26.080026172341842</v>
-          </cell>
-          <cell r="F24">
-            <v>1.3164785488739079</v>
-          </cell>
-          <cell r="G24">
-            <v>2.5839716933881148E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>775.04719</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>60.370617099529511</v>
-          </cell>
-          <cell r="D25">
-            <v>11.751011181584024</v>
-          </cell>
-          <cell r="E25">
-            <v>26.533846018494334</v>
-          </cell>
-          <cell r="F25">
-            <v>1.3258650473856086</v>
-          </cell>
-          <cell r="G25">
-            <v>1.8659357487702966E-2</v>
-          </cell>
-          <cell r="I25">
-            <v>771.89152999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>60.11341860450348</v>
-          </cell>
-          <cell r="D26">
-            <v>11.797013211001461</v>
-          </cell>
-          <cell r="E26">
-            <v>26.732926271883713</v>
-          </cell>
-          <cell r="F26">
-            <v>1.337500714455893</v>
-          </cell>
-          <cell r="G26">
-            <v>1.9141198155463116E-2</v>
-          </cell>
-          <cell r="I26">
-            <v>763.69304999999997</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>60.22707922794681</v>
-          </cell>
-          <cell r="D27">
-            <v>11.435284821167645</v>
-          </cell>
-          <cell r="E27">
-            <v>26.946160661132819</v>
-          </cell>
-          <cell r="F27">
-            <v>1.3732345598692914</v>
-          </cell>
-          <cell r="G27">
-            <v>1.8240729883432897E-2</v>
-          </cell>
-          <cell r="I27">
-            <v>736.31921999999997</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>60.79443879698335</v>
-          </cell>
-          <cell r="D28">
-            <v>10.984483634715779</v>
-          </cell>
-          <cell r="E28">
-            <v>26.851269653423682</v>
-          </cell>
-          <cell r="F28">
-            <v>1.3541035554026295</v>
-          </cell>
-          <cell r="G28">
-            <v>1.5704359474560874E-2</v>
-          </cell>
-          <cell r="I28">
-            <v>733.42692</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>61.411716320736318</v>
-          </cell>
-          <cell r="D29">
-            <v>10.846681211060609</v>
-          </cell>
-          <cell r="E29">
-            <v>26.372418574355518</v>
-          </cell>
-          <cell r="F29">
-            <v>1.3484234508831703</v>
-          </cell>
-          <cell r="G29">
-            <v>2.0760442964378865E-2</v>
-          </cell>
-          <cell r="I29">
-            <v>742.03619000000003</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>61.344987407204755</v>
-          </cell>
-          <cell r="D30">
-            <v>10.78546075641847</v>
-          </cell>
-          <cell r="E30">
-            <v>26.544890459373683</v>
-          </cell>
-          <cell r="F30">
-            <v>1.3096964708587486</v>
-          </cell>
-          <cell r="G30">
-            <v>1.496490614435185E-2</v>
-          </cell>
-          <cell r="I30">
-            <v>756.03548000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>61.362902543035489</v>
-          </cell>
-          <cell r="D31">
-            <v>10.709285448922884</v>
-          </cell>
-          <cell r="E31">
-            <v>26.624317355247339</v>
-          </cell>
-          <cell r="F31">
-            <v>1.2868556610620692</v>
-          </cell>
-          <cell r="G31">
-            <v>1.6638991732223593E-2</v>
-          </cell>
-          <cell r="I31">
-            <v>772.82326999999998</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>61.209153413413276</v>
-          </cell>
-          <cell r="D32">
-            <v>10.708341288568704</v>
-          </cell>
-          <cell r="E32">
-            <v>26.822213914635313</v>
-          </cell>
-          <cell r="F32">
-            <v>1.2431064195218848</v>
-          </cell>
-          <cell r="G32">
-            <v>1.7186237292757072E-2</v>
-          </cell>
-          <cell r="I32">
-            <v>785.27950999999996</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>60.622200392275026</v>
-          </cell>
-          <cell r="D33">
-            <v>11.068025346817723</v>
-          </cell>
-          <cell r="E33">
-            <v>27.068449863870743</v>
-          </cell>
-          <cell r="F33">
-            <v>1.2242925774785918</v>
-          </cell>
-          <cell r="G33">
-            <v>1.7030547482363403E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>786.11683000000005</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34">
-            <v>792.75870999999995</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -36722,7 +34080,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -36828,7 +34186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36970,7 +34328,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -36980,7 +34338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB1B995-604A-45E7-B8C9-E05A1E46371F}">
   <dimension ref="A1:AG125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R44" activeCellId="1" sqref="P44:P74 R44:R74"/>
     </sheetView>
   </sheetViews>
@@ -44053,7 +41411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850610F3-B38C-4941-9C2E-A115E29D88E0}">
   <dimension ref="C3:T68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
@@ -60805,12 +58163,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="262418f3-8967-42a1-91f5-8aa137fbcf65" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fa5a077-4a93-48a7-9217-96ff940fe088">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61031,20 +58391,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="262418f3-8967-42a1-91f5-8aa137fbcf65" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fa5a077-4a93-48a7-9217-96ff940fe088">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D88DED-A1A9-49EC-9762-27E77EF67D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49EDA6BE-81EB-4E59-89D7-E527A2295E12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1fa5a077-4a93-48a7-9217-96ff940fe088"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="262418f3-8967-42a1-91f5-8aa137fbcf65"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -61069,18 +58436,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49EDA6BE-81EB-4E59-89D7-E527A2295E12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D88DED-A1A9-49EC-9762-27E77EF67D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1fa5a077-4a93-48a7-9217-96ff940fe088"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="262418f3-8967-42a1-91f5-8aa137fbcf65"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>